--- a/output/3Y_P25_KFSDIV.xlsx
+++ b/output/3Y_P25_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3636</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8711</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1252</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1934</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1176</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3311</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3637</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6447</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.486</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.1958</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4264</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>17.107</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.8894</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4004</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3877</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6367</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.0061</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.835</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.4216</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.2404</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.382</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>11.9583</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.2036</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9136</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3636</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8711</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1252</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1934</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1176</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3311</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3637</v>
@@ -3945,10 +3948,10 @@
         <v>231680.9792</v>
       </c>
       <c r="K21" s="1">
-        <v>166918.65</v>
+        <v>166940.6057</v>
       </c>
       <c r="L21" s="1">
-        <v>13.4417</v>
+        <v>13.4435</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6447</v>
@@ -3998,10 +4001,10 @@
         <v>232282.2899</v>
       </c>
       <c r="K22" s="1">
-        <v>176552.3098</v>
+        <v>176574.2655</v>
       </c>
       <c r="L22" s="1">
-        <v>13.5354</v>
+        <v>13.5371</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.486</v>
@@ -4051,10 +4054,10 @@
         <v>266007.765</v>
       </c>
       <c r="K23" s="1">
-        <v>195990.1374</v>
+        <v>196012.0932</v>
       </c>
       <c r="L23" s="1">
-        <v>13.6404</v>
+        <v>13.6419</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.1958</v>
@@ -4104,10 +4107,10 @@
         <v>286091.7507</v>
       </c>
       <c r="K24" s="1">
-        <v>193918.1449</v>
+        <v>193948.3795</v>
       </c>
       <c r="L24" s="1">
-        <v>13.6227</v>
+        <v>13.6249</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4264</v>
@@ -4157,10 +4160,10 @@
         <v>299367.4229</v>
       </c>
       <c r="K25" s="1">
-        <v>193833.8224</v>
+        <v>193864.3938</v>
       </c>
       <c r="L25" s="1">
-        <v>13.6218</v>
+        <v>13.6239</v>
       </c>
       <c r="M25" s="1">
         <v>0.75</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>17.107</v>
@@ -4210,10 +4213,10 @@
         <v>328888.9002</v>
       </c>
       <c r="K26" s="1">
-        <v>200585.0991</v>
+        <v>200615.6704</v>
       </c>
       <c r="L26" s="1">
-        <v>13.7013</v>
+        <v>13.7034</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.8894</v>
@@ -4263,10 +4266,10 @@
         <v>335708.1755</v>
       </c>
       <c r="K27" s="1">
-        <v>200641.9336</v>
+        <v>200672.505</v>
       </c>
       <c r="L27" s="1">
-        <v>13.7021</v>
+        <v>13.7042</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4004</v>
@@ -4316,10 +4319,10 @@
         <v>351306.7036</v>
       </c>
       <c r="K28" s="1">
-        <v>213875.2921</v>
+        <v>213905.8635</v>
       </c>
       <c r="L28" s="1">
-        <v>13.8654</v>
+        <v>13.8674</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3877</v>
@@ -4369,10 +4372,10 @@
         <v>344563.8363</v>
       </c>
       <c r="K29" s="1">
-        <v>231473.1165</v>
+        <v>231503.6879</v>
       </c>
       <c r="L29" s="1">
-        <v>14.0321</v>
+        <v>14.0339</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6367</v>
@@ -4422,10 +4425,10 @@
         <v>340791.3284</v>
       </c>
       <c r="K30" s="1">
-        <v>258252.6175</v>
+        <v>258283.1889</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1641</v>
+        <v>14.1658</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.0061</v>
@@ -4475,10 +4478,10 @@
         <v>318389.6827</v>
       </c>
       <c r="K31" s="1">
-        <v>282013.0741</v>
+        <v>282043.6455</v>
       </c>
       <c r="L31" s="1">
-        <v>14.2051</v>
+        <v>14.2066</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.835</v>
@@ -4528,10 +4531,10 @@
         <v>356272.1953</v>
       </c>
       <c r="K32" s="1">
-        <v>324489.5939</v>
+        <v>324520.1652</v>
       </c>
       <c r="L32" s="1">
-        <v>14.0397</v>
+        <v>14.041</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.4216</v>
@@ -4581,10 +4584,10 @@
         <v>379417.7777</v>
       </c>
       <c r="K33" s="1">
-        <v>315334.5103</v>
+        <v>315401.6684</v>
       </c>
       <c r="L33" s="1">
-        <v>14.0449</v>
+        <v>14.0479</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.2404</v>
@@ -4634,10 +4637,10 @@
         <v>363206.8945</v>
       </c>
       <c r="K34" s="1">
-        <v>312176.3174</v>
+        <v>312256.086</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0409</v>
+        <v>14.0445</v>
       </c>
       <c r="M34" s="1">
         <v>0.4</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.382</v>
@@ -4687,10 +4690,10 @@
         <v>359670.6868</v>
       </c>
       <c r="K35" s="1">
-        <v>348532.4399</v>
+        <v>348612.2085</v>
       </c>
       <c r="L35" s="1">
-        <v>13.956</v>
+        <v>13.9592</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>11.9583</v>
@@ -4740,10 +4743,10 @@
         <v>357911.616</v>
       </c>
       <c r="K36" s="1">
-        <v>380053.4252</v>
+        <v>380133.1938</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8129</v>
+        <v>13.8158</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.2036</v>
@@ -4793,10 +4796,10 @@
         <v>375004.0359</v>
       </c>
       <c r="K37" s="1">
-        <v>401773.3078</v>
+        <v>401853.0764</v>
       </c>
       <c r="L37" s="1">
-        <v>13.6998</v>
+        <v>13.7025</v>
       </c>
       <c r="M37" s="1">
         <v>0.4</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9136</v>
@@ -4846,10 +4849,10 @@
         <v>416495.6441</v>
       </c>
       <c r="K38" s="1">
-        <v>404605.3867</v>
+        <v>404685.1553</v>
       </c>
       <c r="L38" s="1">
-        <v>13.6882</v>
+        <v>13.6909</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3636</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8711</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1252</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1934</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1176</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3311</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3637</v>
@@ -5985,10 +5988,10 @@
         <v>232898.5204</v>
       </c>
       <c r="K21" s="1">
-        <v>174983.659</v>
+        <v>175004.5558</v>
       </c>
       <c r="L21" s="1">
-        <v>13.4676</v>
+        <v>13.4692</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6447</v>
@@ -6038,10 +6041,10 @@
         <v>233037.6834</v>
       </c>
       <c r="K22" s="1">
-        <v>185596.4725</v>
+        <v>185617.3693</v>
       </c>
       <c r="L22" s="1">
-        <v>13.5647</v>
+        <v>13.5662</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.486</v>
@@ -6091,10 +6094,10 @@
         <v>267954.5499</v>
       </c>
       <c r="K23" s="1">
-        <v>206547.5349</v>
+        <v>206568.4317</v>
       </c>
       <c r="L23" s="1">
-        <v>13.6695</v>
+        <v>13.6709</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.1958</v>
@@ -6144,10 +6147,10 @@
         <v>288586.0187</v>
       </c>
       <c r="K24" s="1">
-        <v>204958.9508</v>
+        <v>204986.1949</v>
       </c>
       <c r="L24" s="1">
-        <v>13.6569</v>
+        <v>13.6587</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4264</v>
@@ -6197,10 +6200,10 @@
         <v>302046.2014</v>
       </c>
       <c r="K25" s="1">
-        <v>205489.3214</v>
+        <v>205516.5655</v>
       </c>
       <c r="L25" s="1">
-        <v>13.6625</v>
+        <v>13.6643</v>
       </c>
       <c r="M25" s="1">
         <v>0.75</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>17.107</v>
@@ -6250,10 +6253,10 @@
         <v>332704.0635</v>
       </c>
       <c r="K26" s="1">
-        <v>213273.6133</v>
+        <v>213300.8574</v>
       </c>
       <c r="L26" s="1">
-        <v>13.7478</v>
+        <v>13.7495</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.8894</v>
@@ -6303,10 +6306,10 @@
         <v>339322.2667</v>
       </c>
       <c r="K27" s="1">
-        <v>214011.4967</v>
+        <v>214038.7408</v>
       </c>
       <c r="L27" s="1">
-        <v>13.7571</v>
+        <v>13.7589</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4004</v>
@@ -6356,10 +6359,10 @@
         <v>355246.7291</v>
       </c>
       <c r="K28" s="1">
-        <v>228777.2827</v>
+        <v>228804.5268</v>
       </c>
       <c r="L28" s="1">
-        <v>13.9253</v>
+        <v>13.9269</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3877</v>
@@ -6409,10 +6412,10 @@
         <v>347366.0834</v>
       </c>
       <c r="K29" s="1">
-        <v>248257.0652</v>
+        <v>248284.3094</v>
       </c>
       <c r="L29" s="1">
-        <v>14.0941</v>
+        <v>14.0956</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6367</v>
@@ -6462,10 +6465,10 @@
         <v>342619.5857</v>
       </c>
       <c r="K30" s="1">
-        <v>277618.6551</v>
+        <v>277645.8992</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2233</v>
+        <v>14.2247</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.0061</v>
@@ -6515,10 +6518,10 @@
         <v>317841.4343</v>
       </c>
       <c r="K31" s="1">
-        <v>303851.3899</v>
+        <v>303878.634</v>
       </c>
       <c r="L31" s="1">
-        <v>14.2605</v>
+        <v>14.2617</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.835</v>
@@ -6568,10 +6571,10 @@
         <v>357815.665</v>
       </c>
       <c r="K32" s="1">
-        <v>350266.5025</v>
+        <v>350293.7466</v>
       </c>
       <c r="L32" s="1">
-        <v>14.0845</v>
+        <v>14.0856</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.4216</v>
@@ -6621,10 +6624,10 @@
         <v>381996.5327</v>
       </c>
       <c r="K33" s="1">
-        <v>341273.0494</v>
+        <v>341336.2343</v>
       </c>
       <c r="L33" s="1">
-        <v>14.0905</v>
+        <v>14.0931</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.2404</v>
@@ -6674,10 +6677,10 @@
         <v>363648.9516</v>
       </c>
       <c r="K34" s="1">
-        <v>338754.1948</v>
+        <v>338827.4375</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0879</v>
+        <v>14.0909</v>
       </c>
       <c r="M34" s="1">
         <v>0.4</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.382</v>
@@ -6727,10 +6730,10 @@
         <v>358946.2705</v>
       </c>
       <c r="K35" s="1">
-        <v>378992.9572</v>
+        <v>379066.1998</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9959</v>
+        <v>13.9986</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>11.9583</v>
@@ -6780,10 +6783,10 @@
         <v>356190.2803</v>
       </c>
       <c r="K36" s="1">
-        <v>413320.9743</v>
+        <v>413394.2169</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8486</v>
+        <v>13.8511</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.2036</v>
@@ -6833,10 +6836,10 @@
         <v>373660.8284</v>
       </c>
       <c r="K37" s="1">
-        <v>423320.9743</v>
+        <v>423394.2169</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7978</v>
+        <v>13.8002</v>
       </c>
       <c r="M37" s="1">
         <v>0.4</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9136</v>
@@ -6886,10 +6889,10 @@
         <v>416985.2323</v>
       </c>
       <c r="K38" s="1">
-        <v>433320.9743</v>
+        <v>433394.2169</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7571</v>
+        <v>13.7594</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3636</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8711</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1252</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1934</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1176</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3311</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3637</v>
@@ -8025,10 +8028,10 @@
         <v>234113.8627</v>
       </c>
       <c r="K21" s="1">
-        <v>183586.8001</v>
+        <v>183606.4541</v>
       </c>
       <c r="L21" s="1">
-        <v>13.4975</v>
+        <v>13.4989</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6447</v>
@@ -8078,10 +8081,10 @@
         <v>233762.0666</v>
       </c>
       <c r="K22" s="1">
-        <v>195271.1578</v>
+        <v>195290.8118</v>
       </c>
       <c r="L22" s="1">
-        <v>13.5978</v>
+        <v>13.5991</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.486</v>
@@ -8131,10 +8134,10 @@
         <v>269946.3511</v>
       </c>
       <c r="K23" s="1">
-        <v>217868.4173</v>
+        <v>217888.0713</v>
       </c>
       <c r="L23" s="1">
-        <v>13.702</v>
+        <v>13.7032</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.1958</v>
@@ -8184,10 +8187,10 @@
         <v>291163.2204</v>
       </c>
       <c r="K24" s="1">
-        <v>216838.1735</v>
+        <v>216861.9439</v>
       </c>
       <c r="L24" s="1">
-        <v>13.6944</v>
+        <v>13.6959</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4264</v>
@@ -8237,10 +8240,10 @@
         <v>304820.8174</v>
       </c>
       <c r="K25" s="1">
-        <v>218073.3951</v>
+        <v>218097.1655</v>
       </c>
       <c r="L25" s="1">
-        <v>13.7065</v>
+        <v>13.708</v>
       </c>
       <c r="M25" s="1">
         <v>0.75</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>17.107</v>
@@ -8290,10 +8293,10 @@
         <v>336699.8245</v>
       </c>
       <c r="K26" s="1">
-        <v>227018.2006</v>
+        <v>227041.971</v>
       </c>
       <c r="L26" s="1">
-        <v>13.7974</v>
+        <v>13.7989</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.8894</v>
@@ -8343,10 +8346,10 @@
         <v>343100.6206</v>
       </c>
       <c r="K27" s="1">
-        <v>228546.3309</v>
+        <v>228570.1013</v>
       </c>
       <c r="L27" s="1">
-        <v>13.8155</v>
+        <v>13.8169</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4004</v>
@@ -8396,10 +8399,10 @@
         <v>359375.0996</v>
       </c>
       <c r="K28" s="1">
-        <v>245029.5906</v>
+        <v>245053.3611</v>
       </c>
       <c r="L28" s="1">
-        <v>13.9883</v>
+        <v>13.9896</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3877</v>
@@ -8449,10 +8452,10 @@
         <v>350256.8836</v>
       </c>
       <c r="K29" s="1">
-        <v>266616.6609</v>
+        <v>266640.4314</v>
       </c>
       <c r="L29" s="1">
-        <v>14.1588</v>
+        <v>14.1601</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6367</v>
@@ -8502,10 +8505,10 @@
         <v>344447.3255</v>
       </c>
       <c r="K30" s="1">
-        <v>298859.4776</v>
+        <v>298883.2481</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2847</v>
+        <v>14.2859</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.0061</v>
@@ -8555,10 +8558,10 @@
         <v>317066.8659</v>
       </c>
       <c r="K31" s="1">
-        <v>327869.0405</v>
+        <v>327892.811</v>
       </c>
       <c r="L31" s="1">
-        <v>14.3177</v>
+        <v>14.3187</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.835</v>
@@ -8608,10 +8611,10 @@
         <v>358088.2731</v>
       </c>
       <c r="K32" s="1">
-        <v>357696.5778</v>
+        <v>357720.3482</v>
       </c>
       <c r="L32" s="1">
-        <v>14.2009</v>
+        <v>14.2018</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.4216</v>
@@ -8661,10 +8664,10 @@
         <v>383356.0561</v>
       </c>
       <c r="K33" s="1">
-        <v>371294.8805</v>
+        <v>371318.651</v>
       </c>
       <c r="L33" s="1">
-        <v>14.1882</v>
+        <v>14.1891</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.2404</v>
@@ -8714,10 +8717,10 @@
         <v>362645.0363</v>
       </c>
       <c r="K34" s="1">
-        <v>369579.1775</v>
+        <v>369609.7987</v>
       </c>
       <c r="L34" s="1">
-        <v>14.187</v>
+        <v>14.1882</v>
       </c>
       <c r="M34" s="1">
         <v>0.4</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.382</v>
@@ -8767,10 +8770,10 @@
         <v>357757.2988</v>
       </c>
       <c r="K35" s="1">
-        <v>397994.5551</v>
+        <v>398025.1762</v>
       </c>
       <c r="L35" s="1">
-        <v>14.1171</v>
+        <v>14.1182</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>11.9583</v>
@@ -8820,10 +8823,10 @@
         <v>355099.7107</v>
       </c>
       <c r="K36" s="1">
-        <v>417372.7611</v>
+        <v>417403.3823</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0273</v>
+        <v>14.0283</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.2036</v>
@@ -8873,10 +8876,10 @@
         <v>372547.8889</v>
       </c>
       <c r="K37" s="1">
-        <v>427372.7611</v>
+        <v>427403.3823</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9715</v>
+        <v>13.9725</v>
       </c>
       <c r="M37" s="1">
         <v>0.4</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9136</v>
@@ -8926,10 +8929,10 @@
         <v>415774.6437</v>
       </c>
       <c r="K38" s="1">
-        <v>437372.7611</v>
+        <v>437403.3823</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9261</v>
+        <v>13.9271</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3636</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8711</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1252</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1934</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1176</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3311</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3637</v>
@@ -10065,10 +10068,10 @@
         <v>234889.0032</v>
       </c>
       <c r="K21" s="1">
-        <v>193138.376</v>
+        <v>193139.8104</v>
       </c>
       <c r="L21" s="1">
-        <v>13.5575</v>
+        <v>13.5576</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6447</v>
@@ -10118,10 +10121,10 @@
         <v>234015.5311</v>
       </c>
       <c r="K22" s="1">
-        <v>205994.8295</v>
+        <v>205996.2639</v>
       </c>
       <c r="L22" s="1">
-        <v>13.6592</v>
+        <v>13.6593</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.486</v>
@@ -10171,10 +10174,10 @@
         <v>271506.5281</v>
       </c>
       <c r="K23" s="1">
-        <v>229595.801</v>
+        <v>229597.2354</v>
       </c>
       <c r="L23" s="1">
-        <v>13.757</v>
+        <v>13.7571</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.1958</v>
@@ -10224,7 +10227,7 @@
         <v>293347.7447</v>
       </c>
       <c r="K24" s="1">
-        <v>230039.7283</v>
+        <v>230041.1628</v>
       </c>
       <c r="L24" s="1">
         <v>13.7601</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4264</v>
@@ -10277,10 +10280,10 @@
         <v>307217.0151</v>
       </c>
       <c r="K25" s="1">
-        <v>232080.5239</v>
+        <v>232081.9584</v>
       </c>
       <c r="L25" s="1">
-        <v>13.7785</v>
+        <v>13.7786</v>
       </c>
       <c r="M25" s="1">
         <v>0.75</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>17.107</v>
@@ -10330,10 +10333,10 @@
         <v>340408.7054</v>
       </c>
       <c r="K26" s="1">
-        <v>242327.7797</v>
+        <v>242329.2142</v>
       </c>
       <c r="L26" s="1">
-        <v>13.874</v>
+        <v>13.8741</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.8894</v>
@@ -10383,7 +10386,7 @@
         <v>346574.3329</v>
       </c>
       <c r="K27" s="1">
-        <v>244769.4679</v>
+        <v>244770.9024</v>
       </c>
       <c r="L27" s="1">
         <v>13.9005</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4004</v>
@@ -10436,10 +10439,10 @@
         <v>363224.7937</v>
       </c>
       <c r="K28" s="1">
-        <v>263177.0659</v>
+        <v>263178.5004</v>
       </c>
       <c r="L28" s="1">
-        <v>14.0763</v>
+        <v>14.0764</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3877</v>
@@ -10489,10 +10492,10 @@
         <v>352759.7672</v>
       </c>
       <c r="K29" s="1">
-        <v>287123.7617</v>
+        <v>287125.1961</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2467</v>
+        <v>14.2468</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6367</v>
@@ -10542,7 +10545,7 @@
         <v>345789.2701</v>
       </c>
       <c r="K30" s="1">
-        <v>322582.7172</v>
+        <v>322584.1516</v>
       </c>
       <c r="L30" s="1">
         <v>14.3668</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.0061</v>
@@ -10595,7 +10598,7 @@
         <v>316054.7613</v>
       </c>
       <c r="K31" s="1">
-        <v>350386.032</v>
+        <v>350387.4665</v>
       </c>
       <c r="L31" s="1">
         <v>14.3901</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.835</v>
@@ -10648,7 +10651,7 @@
         <v>357748.2886</v>
       </c>
       <c r="K32" s="1">
-        <v>360386.032</v>
+        <v>360387.4665</v>
       </c>
       <c r="L32" s="1">
         <v>14.3486</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.4216</v>
@@ -10701,7 +10704,7 @@
         <v>383255.39</v>
       </c>
       <c r="K33" s="1">
-        <v>381343.162</v>
+        <v>381344.5964</v>
       </c>
       <c r="L33" s="1">
         <v>14.321</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.2404</v>
@@ -10754,7 +10757,7 @@
         <v>361007.5715</v>
       </c>
       <c r="K34" s="1">
-        <v>391343.162</v>
+        <v>391344.5964</v>
       </c>
       <c r="L34" s="1">
         <v>14.3243</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.382</v>
@@ -10807,7 +10810,7 @@
         <v>356751.8923</v>
       </c>
       <c r="K35" s="1">
-        <v>401343.162</v>
+        <v>401344.5964</v>
       </c>
       <c r="L35" s="1">
         <v>14.2959</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>11.9583</v>
@@ -10860,7 +10863,7 @@
         <v>354126.9392</v>
       </c>
       <c r="K36" s="1">
-        <v>421178.4661</v>
+        <v>421179.9006</v>
       </c>
       <c r="L36" s="1">
         <v>14.1941</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.2036</v>
@@ -10913,7 +10916,7 @@
         <v>371555.1638</v>
       </c>
       <c r="K37" s="1">
-        <v>431178.4661</v>
+        <v>431179.9006</v>
       </c>
       <c r="L37" s="1">
         <v>14.1336</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9136</v>
@@ -10966,10 +10969,10 @@
         <v>414694.8172</v>
       </c>
       <c r="K38" s="1">
-        <v>441178.4661</v>
+        <v>441179.9006</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0838</v>
+        <v>14.0839</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>14.0198</v>
       </c>
       <c r="D3" s="1">
-        <v>13.6882</v>
+        <v>13.6909</v>
       </c>
       <c r="E3" s="1">
-        <v>13.7571</v>
+        <v>13.7594</v>
       </c>
       <c r="F3" s="1">
-        <v>13.9261</v>
+        <v>13.9271</v>
       </c>
       <c r="G3" s="1">
-        <v>14.0838</v>
+        <v>14.0839</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>92162.548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9437</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0292</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9621</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9506</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
